--- a/faq.xlsx
+++ b/faq.xlsx
@@ -40,17 +40,7 @@
     <t>Хто адміністратор вашого чату?</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">Можна дізнатися: </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>тут</t>
-    </r>
+    <t>https://docs.google.com/document/d/1NxswccJiFusueN6K_6A06Vv4Sp7xdPD6cypm2axBjQ4/edit?tab=t.0</t>
   </si>
 </sst>
 </file>
@@ -80,7 +70,7 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
   </fonts>
@@ -531,7 +521,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="10" width="18.88"/>
+    <col customWidth="1" min="1" max="3" width="18.88"/>
+    <col customWidth="1" min="4" max="4" width="30.88"/>
+    <col customWidth="1" min="5" max="10" width="18.88"/>
   </cols>
   <sheetData>
     <row r="1">
